--- a/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 41_it_IT.xlsx
+++ b/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 41_it_IT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2df41c4215c7d11/VolumesExcel/it_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/DocumentenLaptop/Programming/Github/DanielNoord/ProjectInventarisGezantschappen/inputs/VolumesExcel_06_07_2022/it_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_446CD969D00250F4F5E19515454CC63BCAC86161" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A44ADF3-01B0-3E43-AFE0-231F36A62712}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D586FA-3DB3-034E-8903-6A6ED5B414DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="497">
   <si>
     <t>ms316_title</t>
   </si>
@@ -1234,9 +1234,6 @@
   </si>
   <si>
     <t>ms316_36_4_261f</t>
-  </si>
-  <si>
-    <t>ms316_36_4_261g</t>
   </si>
   <si>
     <t>ms316_36_4_262</t>
@@ -1581,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1594,7 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1618,9 +1614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1658,9 +1654,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1693,26 +1689,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1745,26 +1724,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1938,21 +1900,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N647"/>
+  <dimension ref="A1:N646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B374" sqref="B374"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="106.1640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="106.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="31.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.1640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2007,14 +1969,14 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6">
@@ -2040,7 +2002,7 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C7">
@@ -2066,7 +2028,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
@@ -2092,7 +2054,7 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C9">
@@ -2118,7 +2080,7 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -2144,7 +2106,7 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2152,7 +2114,7 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C12">
@@ -2178,7 +2140,7 @@
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2186,7 +2148,7 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C14">
@@ -2212,7 +2174,7 @@
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2220,7 +2182,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16">
@@ -2246,7 +2208,7 @@
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -2272,7 +2234,7 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C18">
@@ -2292,7 +2254,7 @@
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19">
@@ -2312,7 +2274,7 @@
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C20">
@@ -2332,7 +2294,7 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C21">
@@ -2358,7 +2320,7 @@
       <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C22">
@@ -2384,7 +2346,7 @@
       <c r="A23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C23">
@@ -2410,7 +2372,7 @@
       <c r="A24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C24">
@@ -2436,7 +2398,7 @@
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C25">
@@ -2462,7 +2424,7 @@
       <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2470,7 +2432,7 @@
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C27">
@@ -2496,7 +2458,7 @@
       <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C28">
@@ -2522,7 +2484,7 @@
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C29">
@@ -2542,7 +2504,7 @@
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C30">
@@ -2562,7 +2524,7 @@
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C31">
@@ -2588,7 +2550,7 @@
       <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C32">
@@ -2614,7 +2576,7 @@
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C33">
@@ -2631,7 +2593,7 @@
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C34">
@@ -2648,7 +2610,7 @@
       <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C35">
@@ -2674,7 +2636,7 @@
       <c r="A36" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C36">
@@ -2700,7 +2662,7 @@
       <c r="A37" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C37">
@@ -2726,7 +2688,7 @@
       <c r="A38" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C38">
@@ -2752,7 +2714,7 @@
       <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C39">
@@ -2778,7 +2740,7 @@
       <c r="A40" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C40">
@@ -2804,7 +2766,7 @@
       <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C41">
@@ -2830,7 +2792,7 @@
       <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2838,7 +2800,7 @@
       <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C43">
@@ -2864,7 +2826,7 @@
       <c r="A44" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2872,7 +2834,7 @@
       <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C45">
@@ -2898,7 +2860,7 @@
       <c r="A46" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C46">
@@ -2924,7 +2886,7 @@
       <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C47">
@@ -2950,7 +2912,7 @@
       <c r="A48" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2958,7 +2920,7 @@
       <c r="A49" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C49">
@@ -2984,7 +2946,7 @@
       <c r="A50" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2992,7 +2954,7 @@
       <c r="A51" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C51">
@@ -3018,7 +2980,7 @@
       <c r="A52" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C52">
@@ -3044,7 +3006,7 @@
       <c r="A53" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C53">
@@ -3070,7 +3032,7 @@
       <c r="A54" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C54">
@@ -3096,7 +3058,7 @@
       <c r="A55" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C55">
@@ -3122,7 +3084,7 @@
       <c r="A56" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3130,7 +3092,7 @@
       <c r="A57" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C57">
@@ -3156,7 +3118,7 @@
       <c r="A58" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3164,7 +3126,7 @@
       <c r="A59" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C59">
@@ -3190,7 +3152,7 @@
       <c r="A60" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3213,13 +3175,13 @@
       <c r="F61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="11"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3227,7 +3189,7 @@
       <c r="A63" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C63">
@@ -3253,7 +3215,7 @@
       <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3261,7 +3223,7 @@
       <c r="A65" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C65">
@@ -3287,7 +3249,7 @@
       <c r="A66" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3295,7 +3257,7 @@
       <c r="A67" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C67">
@@ -3321,7 +3283,7 @@
       <c r="A68" t="s">
         <v>111</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C68">
@@ -3347,7 +3309,7 @@
       <c r="A69" t="s">
         <v>112</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C69">
@@ -3373,7 +3335,7 @@
       <c r="A70" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C70">
@@ -3399,7 +3361,7 @@
       <c r="A71" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C71">
@@ -3425,7 +3387,7 @@
       <c r="A72" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C72">
@@ -3451,7 +3413,7 @@
       <c r="A73" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C73">
@@ -3477,7 +3439,7 @@
       <c r="A74" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C74">
@@ -3503,7 +3465,7 @@
       <c r="A75" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C75">
@@ -3529,7 +3491,7 @@
       <c r="A76" t="s">
         <v>120</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C76">
@@ -3555,7 +3517,7 @@
       <c r="A77" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C77">
@@ -3578,7 +3540,7 @@
       <c r="A78" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C78">
@@ -3601,7 +3563,7 @@
       <c r="A79" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C79">
@@ -3624,7 +3586,7 @@
       <c r="A80" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3632,7 +3594,7 @@
       <c r="A81" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C81">
@@ -3658,7 +3620,7 @@
       <c r="A82" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C82">
@@ -3675,7 +3637,7 @@
       <c r="A83" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3683,7 +3645,7 @@
       <c r="A84" t="s">
         <v>135</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C84">
@@ -3703,7 +3665,7 @@
       <c r="A85" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C85">
@@ -3723,7 +3685,7 @@
       <c r="A86" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3731,7 +3693,7 @@
       <c r="A87" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C87">
@@ -3757,7 +3719,7 @@
       <c r="A88" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3765,7 +3727,7 @@
       <c r="A89" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C89">
@@ -3791,19 +3753,19 @@
       <c r="A90" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="9"/>
+      <c r="B91" s="8"/>
     </row>
     <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>494</v>
+      <c r="B92" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="C92">
         <v>1855</v>
@@ -3813,15 +3775,15 @@
       <c r="A93" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>495</v>
+      <c r="B93" s="8" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>146</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C94">
@@ -3832,13 +3794,13 @@
       <c r="A95" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="8"/>
     </row>
     <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C96">
@@ -3864,7 +3826,7 @@
       <c r="A97" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3872,7 +3834,7 @@
       <c r="A98" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C98">
@@ -3898,7 +3860,7 @@
       <c r="A99" t="s">
         <v>156</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3906,7 +3868,7 @@
       <c r="A100" t="s">
         <v>157</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C100">
@@ -3932,7 +3894,7 @@
       <c r="A101" t="s">
         <v>158</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C101">
@@ -3958,7 +3920,7 @@
       <c r="A102" t="s">
         <v>159</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C102">
@@ -3984,18 +3946,18 @@
       <c r="A103" t="s">
         <v>160</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="9"/>
+      <c r="B104" s="8"/>
     </row>
     <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C105">
@@ -4006,7 +3968,7 @@
       <c r="A106" t="s">
         <v>163</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4014,7 +3976,7 @@
       <c r="A107" t="s">
         <v>164</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C107">
@@ -4040,7 +4002,7 @@
       <c r="A108" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C108">
@@ -4066,7 +4028,7 @@
       <c r="A109" t="s">
         <v>169</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C109">
@@ -4092,7 +4054,7 @@
       <c r="A110" t="s">
         <v>170</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C110">
@@ -4118,7 +4080,7 @@
       <c r="A111" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C111">
@@ -4144,7 +4106,7 @@
       <c r="A112" t="s">
         <v>172</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C112">
@@ -4170,7 +4132,7 @@
       <c r="A113" t="s">
         <v>173</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C113">
@@ -4196,7 +4158,7 @@
       <c r="A114" t="s">
         <v>174</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C114">
@@ -4222,7 +4184,7 @@
       <c r="A115" t="s">
         <v>175</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C115">
@@ -4248,7 +4210,7 @@
       <c r="A116" t="s">
         <v>176</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C116">
@@ -4268,7 +4230,7 @@
       <c r="A117" t="s">
         <v>177</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C117">
@@ -4285,13 +4247,13 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="9"/>
+      <c r="B118" s="8"/>
     </row>
     <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>179</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C119">
@@ -4302,7 +4264,7 @@
       <c r="A120" t="s">
         <v>181</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4310,7 +4272,7 @@
       <c r="A121" t="s">
         <v>182</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C121">
@@ -4336,7 +4298,7 @@
       <c r="A122" t="s">
         <v>185</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C122">
@@ -4362,7 +4324,7 @@
       <c r="A123" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4370,7 +4332,7 @@
       <c r="A124" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C124">
@@ -4396,7 +4358,7 @@
       <c r="A125" t="s">
         <v>191</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4404,7 +4366,7 @@
       <c r="A126" t="s">
         <v>192</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C126">
@@ -4430,7 +4392,7 @@
       <c r="A127" t="s">
         <v>194</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4438,7 +4400,7 @@
       <c r="A128" t="s">
         <v>195</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C128">
@@ -4461,7 +4423,7 @@
       <c r="A129" t="s">
         <v>198</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C129">
@@ -4484,7 +4446,7 @@
       <c r="A130" t="s">
         <v>199</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C130">
@@ -4507,7 +4469,7 @@
       <c r="A131" t="s">
         <v>200</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C131">
@@ -4530,7 +4492,7 @@
       <c r="A132" t="s">
         <v>201</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C132">
@@ -4553,7 +4515,7 @@
       <c r="A133" t="s">
         <v>204</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C133">
@@ -4579,7 +4541,7 @@
       <c r="A134" t="s">
         <v>205</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C134">
@@ -4605,7 +4567,7 @@
       <c r="A135" t="s">
         <v>206</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C135">
@@ -4631,7 +4593,7 @@
       <c r="A136" t="s">
         <v>207</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4639,7 +4601,7 @@
       <c r="A137" t="s">
         <v>208</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C137">
@@ -4662,7 +4624,7 @@
       <c r="A138" t="s">
         <v>209</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C138">
@@ -4673,7 +4635,7 @@
       <c r="A139" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C139">
@@ -4696,7 +4658,7 @@
       <c r="A140" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C140">
@@ -4719,7 +4681,7 @@
       <c r="A141" t="s">
         <v>212</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C141">
@@ -4745,7 +4707,7 @@
       <c r="A142" t="s">
         <v>213</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4753,7 +4715,7 @@
       <c r="A143" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C143">
@@ -4779,19 +4741,19 @@
       <c r="A144" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="9"/>
+      <c r="B145" s="8"/>
     </row>
     <row r="146" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>216</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>493</v>
+      <c r="B146" s="8" t="s">
+        <v>492</v>
       </c>
       <c r="C146">
         <v>1855</v>
@@ -4801,15 +4763,15 @@
       <c r="A147" t="s">
         <v>217</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>493</v>
+      <c r="B147" s="8" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>218</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C148">
@@ -4835,7 +4797,7 @@
       <c r="A149" t="s">
         <v>219</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C149">
@@ -4861,7 +4823,7 @@
       <c r="A150" t="s">
         <v>220</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C150">
@@ -4887,7 +4849,7 @@
       <c r="A151" t="s">
         <v>221</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C151">
@@ -4913,7 +4875,7 @@
       <c r="A152" t="s">
         <v>222</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C152">
@@ -4939,7 +4901,7 @@
       <c r="A153" t="s">
         <v>223</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4947,119 +4909,119 @@
       <c r="A154" t="s">
         <v>224</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>490</v>
+      <c r="B154" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>225</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>490</v>
+      <c r="B155" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>226</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>490</v>
+      <c r="B156" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>227</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>490</v>
+      <c r="B157" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>228</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>490</v>
+      <c r="B158" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>229</v>
       </c>
-      <c r="B159" s="9" t="s">
-        <v>490</v>
+      <c r="B159" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>230</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>490</v>
+      <c r="B160" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>231</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>490</v>
+      <c r="B161" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>232</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>490</v>
+      <c r="B162" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>233</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>490</v>
+      <c r="B163" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>234</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>490</v>
+      <c r="B164" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>235</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>490</v>
+      <c r="B165" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>236</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>490</v>
+      <c r="B166" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>237</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>490</v>
+      <c r="B167" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>238</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C168">
@@ -5085,7 +5047,7 @@
       <c r="A169" t="s">
         <v>240</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C169">
@@ -5111,7 +5073,7 @@
       <c r="A170" t="s">
         <v>241</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>242</v>
       </c>
       <c r="G170" t="s">
@@ -5122,7 +5084,7 @@
       <c r="A171" t="s">
         <v>243</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5130,7 +5092,7 @@
       <c r="A172" t="s">
         <v>244</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>245</v>
       </c>
       <c r="C172">
@@ -5156,7 +5118,7 @@
       <c r="A173" t="s">
         <v>246</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5164,7 +5126,7 @@
       <c r="A174" t="s">
         <v>247</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="8" t="s">
         <v>248</v>
       </c>
       <c r="C174">
@@ -5190,7 +5152,7 @@
       <c r="A175" t="s">
         <v>249</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5198,215 +5160,215 @@
       <c r="A176" t="s">
         <v>250</v>
       </c>
-      <c r="B176" s="9" t="s">
-        <v>490</v>
+      <c r="B176" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>251</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>490</v>
+      <c r="B177" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>252</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>490</v>
+      <c r="B178" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>253</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>490</v>
+      <c r="B179" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>254</v>
       </c>
-      <c r="B180" s="9" t="s">
-        <v>490</v>
+      <c r="B180" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>255</v>
       </c>
-      <c r="B181" s="9" t="s">
-        <v>490</v>
+      <c r="B181" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>256</v>
       </c>
-      <c r="B182" s="9" t="s">
-        <v>490</v>
+      <c r="B182" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>257</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>490</v>
+      <c r="B183" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>258</v>
       </c>
-      <c r="B184" s="9" t="s">
-        <v>490</v>
+      <c r="B184" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>259</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>490</v>
+      <c r="B185" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>260</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>490</v>
+      <c r="B186" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>261</v>
       </c>
-      <c r="B187" s="9" t="s">
-        <v>490</v>
+      <c r="B187" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>262</v>
       </c>
-      <c r="B188" s="9" t="s">
-        <v>490</v>
+      <c r="B188" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>263</v>
       </c>
-      <c r="B189" s="9" t="s">
-        <v>490</v>
+      <c r="B189" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>264</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>490</v>
+      <c r="B190" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>490</v>
+      <c r="B191" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>266</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>490</v>
+      <c r="B192" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>267</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>490</v>
+      <c r="B193" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>268</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>490</v>
+      <c r="B194" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>269</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>490</v>
+      <c r="B195" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>270</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>490</v>
+      <c r="B196" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>271</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>490</v>
+      <c r="B197" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>272</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>490</v>
+      <c r="B198" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>273</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>490</v>
+      <c r="B199" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>274</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>490</v>
+      <c r="B200" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>275</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>490</v>
+      <c r="B201" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>276</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>277</v>
       </c>
       <c r="C202">
@@ -5429,7 +5391,7 @@
       <c r="A203" t="s">
         <v>279</v>
       </c>
-      <c r="B203" s="9" t="s">
+      <c r="B203" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5437,55 +5399,55 @@
       <c r="A204" t="s">
         <v>280</v>
       </c>
-      <c r="B204" s="9" t="s">
-        <v>490</v>
+      <c r="B204" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>281</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>490</v>
+      <c r="B205" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>282</v>
       </c>
-      <c r="B206" s="9" t="s">
-        <v>490</v>
+      <c r="B206" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>283</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>490</v>
+      <c r="B207" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>284</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>490</v>
+      <c r="B208" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>285</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>490</v>
+      <c r="B209" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>286</v>
       </c>
-      <c r="B210" s="9" t="s">
+      <c r="B210" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C210">
@@ -5511,7 +5473,7 @@
       <c r="A211" t="s">
         <v>290</v>
       </c>
-      <c r="B211" s="9" t="s">
+      <c r="B211" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C211">
@@ -5537,7 +5499,7 @@
       <c r="A212" t="s">
         <v>291</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C212">
@@ -5554,7 +5516,7 @@
       <c r="A213" t="s">
         <v>293</v>
       </c>
-      <c r="B213" s="9" t="s">
+      <c r="B213" s="8" t="s">
         <v>292</v>
       </c>
       <c r="C213">
@@ -5571,7 +5533,7 @@
       <c r="A214" t="s">
         <v>294</v>
       </c>
-      <c r="B214" s="9" t="s">
+      <c r="B214" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C214">
@@ -5597,7 +5559,7 @@
       <c r="A215" t="s">
         <v>295</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B215" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C215">
@@ -5623,7 +5585,7 @@
       <c r="A216" t="s">
         <v>296</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B216" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C216">
@@ -5649,7 +5611,7 @@
       <c r="A217" t="s">
         <v>297</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>287</v>
       </c>
       <c r="C217">
@@ -5675,8 +5637,8 @@
       <c r="A218" t="s">
         <v>298</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>491</v>
+      <c r="B218" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="C218">
         <v>1854</v>
@@ -5698,7 +5660,7 @@
       <c r="A219" t="s">
         <v>299</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5706,15 +5668,15 @@
       <c r="A220" t="s">
         <v>300</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>490</v>
+      <c r="B220" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>301</v>
       </c>
-      <c r="B221" s="9" t="s">
+      <c r="B221" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5722,8 +5684,8 @@
       <c r="A222" t="s">
         <v>302</v>
       </c>
-      <c r="B222" s="9" t="s">
-        <v>492</v>
+      <c r="B222" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="C222">
         <v>1819</v>
@@ -5739,8 +5701,8 @@
       <c r="A223" t="s">
         <v>303</v>
       </c>
-      <c r="B223" s="9" t="s">
-        <v>492</v>
+      <c r="B223" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="C223">
         <v>1819</v>
@@ -5756,39 +5718,39 @@
       <c r="A224" t="s">
         <v>304</v>
       </c>
-      <c r="B224" s="9" t="s">
-        <v>490</v>
+      <c r="B224" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>305</v>
       </c>
-      <c r="B225" s="9" t="s">
-        <v>490</v>
+      <c r="B225" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>306</v>
       </c>
-      <c r="B226" s="9" t="s">
-        <v>490</v>
+      <c r="B226" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>307</v>
       </c>
-      <c r="B227" s="9" t="s">
-        <v>490</v>
+      <c r="B227" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>308</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H228" t="s">
@@ -5799,7 +5761,7 @@
       <c r="A229" t="s">
         <v>310</v>
       </c>
-      <c r="B229" s="9" t="s">
+      <c r="B229" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H229" t="s">
@@ -5810,7 +5772,7 @@
       <c r="A230" t="s">
         <v>311</v>
       </c>
-      <c r="B230" s="9" t="s">
+      <c r="B230" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H230" t="s">
@@ -5821,7 +5783,7 @@
       <c r="A231" t="s">
         <v>312</v>
       </c>
-      <c r="B231" s="9" t="s">
+      <c r="B231" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H231" t="s">
@@ -5832,7 +5794,7 @@
       <c r="A232" t="s">
         <v>313</v>
       </c>
-      <c r="B232" s="9" t="s">
+      <c r="B232" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H232" t="s">
@@ -5843,7 +5805,7 @@
       <c r="A233" t="s">
         <v>314</v>
       </c>
-      <c r="B233" s="9" t="s">
+      <c r="B233" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H233" t="s">
@@ -5854,7 +5816,7 @@
       <c r="A234" t="s">
         <v>315</v>
       </c>
-      <c r="B234" s="9" t="s">
+      <c r="B234" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H234" t="s">
@@ -5865,7 +5827,7 @@
       <c r="A235" t="s">
         <v>316</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H235" t="s">
@@ -5876,7 +5838,7 @@
       <c r="A236" t="s">
         <v>317</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H236" t="s">
@@ -5887,7 +5849,7 @@
       <c r="A237" t="s">
         <v>318</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H237" t="s">
@@ -5898,7 +5860,7 @@
       <c r="A238" t="s">
         <v>319</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B238" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H238" t="s">
@@ -5909,7 +5871,7 @@
       <c r="A239" t="s">
         <v>320</v>
       </c>
-      <c r="B239" s="9" t="s">
+      <c r="B239" s="8" t="s">
         <v>309</v>
       </c>
       <c r="H239" t="s">
@@ -5920,7 +5882,7 @@
       <c r="A240" t="s">
         <v>321</v>
       </c>
-      <c r="B240" s="9" t="s">
+      <c r="B240" s="8" t="s">
         <v>322</v>
       </c>
       <c r="H240" t="s">
@@ -5931,7 +5893,7 @@
       <c r="A241" t="s">
         <v>323</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B241" s="8" t="s">
         <v>322</v>
       </c>
       <c r="H241" t="s">
@@ -5942,7 +5904,7 @@
       <c r="A242" t="s">
         <v>324</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C242">
@@ -5962,7 +5924,7 @@
       <c r="A243" t="s">
         <v>327</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C243">
@@ -5982,7 +5944,7 @@
       <c r="A244" t="s">
         <v>328</v>
       </c>
-      <c r="B244" s="9" t="s">
+      <c r="B244" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C244">
@@ -6002,7 +5964,7 @@
       <c r="A245" t="s">
         <v>329</v>
       </c>
-      <c r="B245" s="9" t="s">
+      <c r="B245" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C245">
@@ -6022,7 +5984,7 @@
       <c r="A246" t="s">
         <v>330</v>
       </c>
-      <c r="B246" s="9" t="s">
+      <c r="B246" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C246">
@@ -6042,7 +6004,7 @@
       <c r="A247" t="s">
         <v>331</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B247" s="8" t="s">
         <v>325</v>
       </c>
       <c r="C247">
@@ -6062,7 +6024,7 @@
       <c r="A248" t="s">
         <v>332</v>
       </c>
-      <c r="B248" s="9" t="s">
+      <c r="B248" s="8" t="s">
         <v>333</v>
       </c>
       <c r="C248">
@@ -6082,7 +6044,7 @@
       <c r="A249" t="s">
         <v>334</v>
       </c>
-      <c r="B249" s="9" t="s">
+      <c r="B249" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6090,202 +6052,202 @@
       <c r="A250" t="s">
         <v>335</v>
       </c>
-      <c r="B250" s="9" t="s">
-        <v>489</v>
+      <c r="B250" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>336</v>
       </c>
-      <c r="B251" s="9" t="s">
-        <v>489</v>
+      <c r="B251" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>337</v>
       </c>
-      <c r="B252" s="9" t="s">
-        <v>489</v>
+      <c r="B252" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>338</v>
       </c>
-      <c r="B253" s="9" t="s">
-        <v>489</v>
+      <c r="B253" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>339</v>
       </c>
-      <c r="B254" s="9" t="s">
-        <v>489</v>
+      <c r="B254" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>340</v>
       </c>
-      <c r="B255" s="9" t="s">
-        <v>489</v>
+      <c r="B255" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>341</v>
       </c>
-      <c r="B256" s="9" t="s">
-        <v>489</v>
+      <c r="B256" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>342</v>
       </c>
-      <c r="B257" s="9" t="s">
-        <v>489</v>
+      <c r="B257" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>343</v>
       </c>
-      <c r="B258" s="9" t="s">
-        <v>489</v>
+      <c r="B258" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>344</v>
       </c>
-      <c r="B259" s="9" t="s">
-        <v>489</v>
+      <c r="B259" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>345</v>
       </c>
-      <c r="B260" s="9" t="s">
-        <v>489</v>
+      <c r="B260" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>346</v>
       </c>
-      <c r="B261" s="9" t="s">
-        <v>489</v>
+      <c r="B261" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>347</v>
       </c>
-      <c r="B262" s="9" t="s">
-        <v>489</v>
+      <c r="B262" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>348</v>
       </c>
-      <c r="B263" s="9" t="s">
-        <v>489</v>
+      <c r="B263" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>349</v>
       </c>
-      <c r="B264" s="9" t="s">
-        <v>489</v>
+      <c r="B264" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>350</v>
       </c>
-      <c r="B265" s="9" t="s">
-        <v>489</v>
+      <c r="B265" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>351</v>
       </c>
-      <c r="B266" s="9" t="s">
-        <v>489</v>
+      <c r="B266" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>352</v>
       </c>
-      <c r="B267" s="9" t="s">
-        <v>489</v>
+      <c r="B267" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>353</v>
       </c>
-      <c r="B268" s="9" t="s">
-        <v>489</v>
+      <c r="B268" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>354</v>
       </c>
-      <c r="B269" s="9" t="s">
-        <v>489</v>
+      <c r="B269" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>355</v>
       </c>
-      <c r="B270" s="9" t="s">
-        <v>489</v>
+      <c r="B270" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>356</v>
       </c>
-      <c r="B271" s="9" t="s">
-        <v>489</v>
+      <c r="B271" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>357</v>
       </c>
-      <c r="B272" s="9" t="s">
-        <v>489</v>
+      <c r="B272" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>358</v>
       </c>
-      <c r="B273" s="9" t="s">
-        <v>489</v>
+      <c r="B273" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="9"/>
+      <c r="B274" s="8"/>
     </row>
     <row r="275" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>359</v>
       </c>
-      <c r="B275" s="9" t="s">
+      <c r="B275" s="8" t="s">
         <v>360</v>
       </c>
       <c r="C275">
@@ -6299,15 +6261,15 @@
       <c r="A276" t="s">
         <v>361</v>
       </c>
-      <c r="B276" s="9" t="s">
-        <v>497</v>
+      <c r="B276" s="8" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>362</v>
       </c>
-      <c r="B277" s="9" t="s">
+      <c r="B277" s="8" t="s">
         <v>363</v>
       </c>
     </row>
@@ -6315,7 +6277,7 @@
       <c r="A278" t="s">
         <v>364</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6323,7 +6285,7 @@
       <c r="A279" t="s">
         <v>365</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C279">
@@ -6340,7 +6302,7 @@
       <c r="A280" t="s">
         <v>367</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C280">
@@ -6357,7 +6319,7 @@
       <c r="A281" t="s">
         <v>368</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C281">
@@ -6374,7 +6336,7 @@
       <c r="A282" t="s">
         <v>369</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C282">
@@ -6391,7 +6353,7 @@
       <c r="A283" t="s">
         <v>370</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C283">
@@ -6408,7 +6370,7 @@
       <c r="A284" t="s">
         <v>371</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C284">
@@ -6425,7 +6387,7 @@
       <c r="A285" t="s">
         <v>372</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C285">
@@ -6442,7 +6404,7 @@
       <c r="A286" t="s">
         <v>373</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C286">
@@ -6459,7 +6421,7 @@
       <c r="A287" t="s">
         <v>374</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C287">
@@ -6476,7 +6438,7 @@
       <c r="A288" t="s">
         <v>375</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C288">
@@ -6493,7 +6455,7 @@
       <c r="A289" t="s">
         <v>376</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C289">
@@ -6510,7 +6472,7 @@
       <c r="A290" t="s">
         <v>377</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C290">
@@ -6527,7 +6489,7 @@
       <c r="A291" t="s">
         <v>378</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C291">
@@ -6544,7 +6506,7 @@
       <c r="A292" t="s">
         <v>379</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C292">
@@ -6561,7 +6523,7 @@
       <c r="A293" t="s">
         <v>380</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C293">
@@ -6578,7 +6540,7 @@
       <c r="A294" t="s">
         <v>381</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C294">
@@ -6595,7 +6557,7 @@
       <c r="A295" t="s">
         <v>382</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C295">
@@ -6612,7 +6574,7 @@
       <c r="A296" t="s">
         <v>383</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C296">
@@ -6629,7 +6591,7 @@
       <c r="A297" t="s">
         <v>384</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C297">
@@ -6646,7 +6608,7 @@
       <c r="A298" t="s">
         <v>385</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C298">
@@ -6663,7 +6625,7 @@
       <c r="A299" t="s">
         <v>386</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C299">
@@ -6680,7 +6642,7 @@
       <c r="A300" t="s">
         <v>387</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C300">
@@ -6697,7 +6659,7 @@
       <c r="A301" t="s">
         <v>388</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C301">
@@ -6717,7 +6679,7 @@
       <c r="A302" t="s">
         <v>390</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C302">
@@ -6737,7 +6699,7 @@
       <c r="A303" t="s">
         <v>391</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C303">
@@ -6757,7 +6719,7 @@
       <c r="A304" t="s">
         <v>392</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C304">
@@ -6777,7 +6739,7 @@
       <c r="A305" t="s">
         <v>393</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K305" t="s">
@@ -6788,7 +6750,7 @@
       <c r="A306" t="s">
         <v>395</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K306" t="s">
@@ -6799,7 +6761,7 @@
       <c r="A307" t="s">
         <v>396</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K307" t="s">
@@ -6810,7 +6772,7 @@
       <c r="A308" t="s">
         <v>397</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="9" t="s">
         <v>394</v>
       </c>
       <c r="K308" t="s">
@@ -6821,7 +6783,7 @@
       <c r="A309" t="s">
         <v>398</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="9" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6829,7 +6791,7 @@
       <c r="A310" t="s">
         <v>399</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="9" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6837,7 +6799,7 @@
       <c r="A311" t="s">
         <v>400</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="9" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6845,7 +6807,7 @@
       <c r="A312" t="s">
         <v>401</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="9" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6853,7 +6815,7 @@
       <c r="A313" t="s">
         <v>402</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="9" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6861,47 +6823,56 @@
       <c r="A314" t="s">
         <v>403</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="9" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>404</v>
       </c>
-      <c r="B315" s="10" t="s">
-        <v>394</v>
+      <c r="B315" s="8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>405</v>
-      </c>
-      <c r="B316" s="9" t="s">
         <v>406</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>407</v>
-      </c>
-      <c r="B317" s="9" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>409</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>22</v>
+        <v>366</v>
+      </c>
+      <c r="C318">
+        <v>1853</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318">
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>410</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="9" t="s">
         <v>366</v>
       </c>
       <c r="C319">
@@ -6914,29 +6885,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>411</v>
       </c>
-      <c r="B320" s="10" t="s">
-        <v>366</v>
+      <c r="B320" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="C320">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E320">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>413</v>
+      </c>
+      <c r="B321" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="C321">
         <v>1854</v>
@@ -6952,42 +6923,45 @@
       <c r="A322" t="s">
         <v>414</v>
       </c>
-      <c r="B322" s="9" t="s">
-        <v>413</v>
+      <c r="B322" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="C322">
         <v>1854</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E322">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>415</v>
       </c>
-      <c r="B323" s="9" t="s">
-        <v>413</v>
+      <c r="B323" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C323">
         <v>1854</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E323">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="G323" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>418</v>
+      </c>
+      <c r="B324" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="C324">
         <v>1854</v>
@@ -6999,15 +6973,15 @@
         <v>31</v>
       </c>
       <c r="G324" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>419</v>
       </c>
-      <c r="B325" s="9" t="s">
-        <v>417</v>
+      <c r="B325" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C325">
         <v>1854</v>
@@ -7019,15 +6993,15 @@
         <v>31</v>
       </c>
       <c r="G325" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>420</v>
       </c>
-      <c r="B326" s="9" t="s">
-        <v>417</v>
+      <c r="B326" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C326">
         <v>1854</v>
@@ -7039,15 +7013,15 @@
         <v>31</v>
       </c>
       <c r="G326" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>421</v>
       </c>
-      <c r="B327" s="9" t="s">
-        <v>417</v>
+      <c r="B327" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C327">
         <v>1854</v>
@@ -7059,15 +7033,15 @@
         <v>31</v>
       </c>
       <c r="G327" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>422</v>
       </c>
-      <c r="B328" s="9" t="s">
-        <v>417</v>
+      <c r="B328" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C328">
         <v>1854</v>
@@ -7079,15 +7053,15 @@
         <v>31</v>
       </c>
       <c r="G328" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>423</v>
       </c>
-      <c r="B329" s="9" t="s">
-        <v>417</v>
+      <c r="B329" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C329">
         <v>1854</v>
@@ -7099,15 +7073,15 @@
         <v>31</v>
       </c>
       <c r="G329" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>424</v>
       </c>
-      <c r="B330" s="9" t="s">
-        <v>417</v>
+      <c r="B330" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C330">
         <v>1854</v>
@@ -7119,15 +7093,15 @@
         <v>31</v>
       </c>
       <c r="G330" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>425</v>
       </c>
-      <c r="B331" s="9" t="s">
-        <v>417</v>
+      <c r="B331" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C331">
         <v>1854</v>
@@ -7139,15 +7113,15 @@
         <v>31</v>
       </c>
       <c r="G331" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>426</v>
       </c>
-      <c r="B332" s="9" t="s">
-        <v>417</v>
+      <c r="B332" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C332">
         <v>1854</v>
@@ -7159,15 +7133,15 @@
         <v>31</v>
       </c>
       <c r="G332" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>427</v>
       </c>
-      <c r="B333" s="9" t="s">
-        <v>417</v>
+      <c r="B333" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C333">
         <v>1854</v>
@@ -7179,15 +7153,15 @@
         <v>31</v>
       </c>
       <c r="G333" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>428</v>
       </c>
-      <c r="B334" s="9" t="s">
-        <v>417</v>
+      <c r="B334" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C334">
         <v>1854</v>
@@ -7199,15 +7173,15 @@
         <v>31</v>
       </c>
       <c r="G334" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>429</v>
       </c>
-      <c r="B335" s="9" t="s">
-        <v>417</v>
+      <c r="B335" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C335">
         <v>1854</v>
@@ -7219,15 +7193,15 @@
         <v>31</v>
       </c>
       <c r="G335" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>430</v>
       </c>
-      <c r="B336" s="9" t="s">
-        <v>417</v>
+      <c r="B336" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C336">
         <v>1854</v>
@@ -7239,35 +7213,32 @@
         <v>31</v>
       </c>
       <c r="G336" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>431</v>
       </c>
-      <c r="B337" s="9" t="s">
-        <v>417</v>
+      <c r="B337" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="C337">
         <v>1854</v>
       </c>
       <c r="D337">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E337">
-        <v>31</v>
-      </c>
-      <c r="G337" t="s">
-        <v>418</v>
+        <v>21</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>433</v>
+      </c>
+      <c r="B338" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="C338">
         <v>1854</v>
@@ -7283,8 +7254,8 @@
       <c r="A339" t="s">
         <v>434</v>
       </c>
-      <c r="B339" s="9" t="s">
-        <v>433</v>
+      <c r="B339" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C339">
         <v>1854</v>
@@ -7293,15 +7264,18 @@
         <v>6</v>
       </c>
       <c r="E339">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="G339" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>435</v>
       </c>
-      <c r="B340" s="9" t="s">
-        <v>417</v>
+      <c r="B340" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C340">
         <v>1854</v>
@@ -7313,15 +7287,15 @@
         <v>30</v>
       </c>
       <c r="G340" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>436</v>
       </c>
-      <c r="B341" s="9" t="s">
-        <v>417</v>
+      <c r="B341" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C341">
         <v>1854</v>
@@ -7333,15 +7307,15 @@
         <v>30</v>
       </c>
       <c r="G341" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>437</v>
       </c>
-      <c r="B342" s="9" t="s">
-        <v>417</v>
+      <c r="B342" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C342">
         <v>1854</v>
@@ -7353,15 +7327,15 @@
         <v>30</v>
       </c>
       <c r="G342" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>438</v>
       </c>
-      <c r="B343" s="9" t="s">
-        <v>417</v>
+      <c r="B343" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C343">
         <v>1854</v>
@@ -7373,15 +7347,15 @@
         <v>30</v>
       </c>
       <c r="G343" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>439</v>
       </c>
-      <c r="B344" s="9" t="s">
-        <v>417</v>
+      <c r="B344" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C344">
         <v>1854</v>
@@ -7393,15 +7367,15 @@
         <v>30</v>
       </c>
       <c r="G344" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>440</v>
       </c>
-      <c r="B345" s="9" t="s">
-        <v>417</v>
+      <c r="B345" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C345">
         <v>1854</v>
@@ -7413,15 +7387,15 @@
         <v>30</v>
       </c>
       <c r="G345" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>441</v>
       </c>
-      <c r="B346" s="9" t="s">
-        <v>417</v>
+      <c r="B346" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C346">
         <v>1854</v>
@@ -7433,15 +7407,15 @@
         <v>30</v>
       </c>
       <c r="G346" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>442</v>
       </c>
-      <c r="B347" s="9" t="s">
-        <v>417</v>
+      <c r="B347" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C347">
         <v>1854</v>
@@ -7453,15 +7427,15 @@
         <v>30</v>
       </c>
       <c r="G347" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>443</v>
       </c>
-      <c r="B348" s="9" t="s">
-        <v>417</v>
+      <c r="B348" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C348">
         <v>1854</v>
@@ -7473,15 +7447,15 @@
         <v>30</v>
       </c>
       <c r="G348" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>444</v>
       </c>
-      <c r="B349" s="9" t="s">
-        <v>417</v>
+      <c r="B349" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C349">
         <v>1854</v>
@@ -7493,15 +7467,15 @@
         <v>30</v>
       </c>
       <c r="G349" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>445</v>
       </c>
-      <c r="B350" s="9" t="s">
-        <v>417</v>
+      <c r="B350" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C350">
         <v>1854</v>
@@ -7513,15 +7487,15 @@
         <v>30</v>
       </c>
       <c r="G350" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>446</v>
       </c>
-      <c r="B351" s="9" t="s">
-        <v>417</v>
+      <c r="B351" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C351">
         <v>1854</v>
@@ -7533,15 +7507,15 @@
         <v>30</v>
       </c>
       <c r="G351" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>447</v>
       </c>
-      <c r="B352" s="9" t="s">
-        <v>417</v>
+      <c r="B352" s="8" t="s">
+        <v>416</v>
       </c>
       <c r="C352">
         <v>1854</v>
@@ -7553,35 +7527,32 @@
         <v>30</v>
       </c>
       <c r="G352" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>448</v>
       </c>
-      <c r="B353" s="9" t="s">
-        <v>417</v>
+      <c r="B353" s="8" t="s">
+        <v>449</v>
       </c>
       <c r="C353">
         <v>1854</v>
       </c>
       <c r="D353">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E353">
-        <v>30</v>
-      </c>
-      <c r="G353" t="s">
-        <v>418</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
+        <v>450</v>
+      </c>
+      <c r="B354" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="C354">
         <v>1854</v>
@@ -7597,44 +7568,44 @@
       <c r="A355" t="s">
         <v>451</v>
       </c>
-      <c r="B355" s="9" t="s">
-        <v>450</v>
+      <c r="B355" s="8" t="s">
+        <v>452</v>
       </c>
       <c r="C355">
         <v>1854</v>
       </c>
-      <c r="D355">
-        <v>12</v>
-      </c>
-      <c r="E355">
-        <v>9</v>
-      </c>
     </row>
     <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>452</v>
-      </c>
-      <c r="B356" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C356">
-        <v>1854</v>
+      <c r="B356" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>454</v>
       </c>
-      <c r="B357" s="9" t="s">
-        <v>22</v>
+      <c r="B357" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C357">
+        <v>1855</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>456</v>
+      </c>
+      <c r="B358" s="8" t="s">
         <v>455</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>456</v>
       </c>
       <c r="C358">
         <v>1855</v>
@@ -7650,41 +7621,47 @@
       <c r="A359" t="s">
         <v>457</v>
       </c>
-      <c r="B359" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="C359">
-        <v>1855</v>
-      </c>
-      <c r="D359">
-        <v>1</v>
-      </c>
-      <c r="E359">
-        <v>11</v>
+      <c r="B359" s="8" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>459</v>
+      </c>
+      <c r="B360" s="8" t="s">
         <v>458</v>
-      </c>
-      <c r="B360" s="9" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>460</v>
       </c>
-      <c r="B361" s="9" t="s">
-        <v>459</v>
+      <c r="B361" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C361">
+        <v>1855</v>
+      </c>
+      <c r="D361">
+        <v>5</v>
+      </c>
+      <c r="E361">
+        <v>19</v>
+      </c>
+      <c r="F361" t="s">
+        <v>16</v>
+      </c>
+      <c r="G361" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
+        <v>462</v>
+      </c>
+      <c r="B362" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="B362" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="C362">
         <v>1855</v>
@@ -7706,8 +7683,8 @@
       <c r="A363" t="s">
         <v>463</v>
       </c>
-      <c r="B363" s="9" t="s">
-        <v>462</v>
+      <c r="B363" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="C363">
         <v>1855</v>
@@ -7729,8 +7706,8 @@
       <c r="A364" t="s">
         <v>464</v>
       </c>
-      <c r="B364" s="9" t="s">
-        <v>462</v>
+      <c r="B364" s="8" t="s">
+        <v>461</v>
       </c>
       <c r="C364">
         <v>1855</v>
@@ -7752,8 +7729,8 @@
       <c r="A365" t="s">
         <v>465</v>
       </c>
-      <c r="B365" s="9" t="s">
-        <v>462</v>
+      <c r="B365" s="8" t="s">
+        <v>466</v>
       </c>
       <c r="C365">
         <v>1855</v>
@@ -7773,72 +7750,66 @@
     </row>
     <row r="366" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>466</v>
-      </c>
-      <c r="B366" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C366">
-        <v>1855</v>
-      </c>
-      <c r="D366">
-        <v>5</v>
-      </c>
-      <c r="E366">
-        <v>19</v>
-      </c>
-      <c r="F366" t="s">
-        <v>16</v>
-      </c>
-      <c r="G366" t="s">
-        <v>11</v>
+      <c r="B366" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>468</v>
       </c>
-      <c r="B367" s="9" t="s">
-        <v>22</v>
+      <c r="B367" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C367">
+        <v>1855</v>
+      </c>
+      <c r="D367">
+        <v>5</v>
+      </c>
+      <c r="E367">
+        <v>19</v>
+      </c>
+      <c r="F367" t="s">
+        <v>16</v>
+      </c>
+      <c r="G367" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>469</v>
       </c>
-      <c r="B368" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C368">
-        <v>1855</v>
-      </c>
-      <c r="D368">
-        <v>5</v>
-      </c>
-      <c r="E368">
-        <v>19</v>
-      </c>
-      <c r="F368" t="s">
-        <v>16</v>
-      </c>
-      <c r="G368" t="s">
-        <v>11</v>
+      <c r="B368" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>470</v>
       </c>
-      <c r="B369" s="9" t="s">
-        <v>22</v>
+      <c r="B369" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C369">
+        <v>1855</v>
+      </c>
+      <c r="D369">
+        <v>8</v>
+      </c>
+      <c r="E369">
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
+        <v>472</v>
+      </c>
+      <c r="B370" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>472</v>
       </c>
       <c r="C370">
         <v>1855</v>
@@ -7854,8 +7825,8 @@
       <c r="A371" t="s">
         <v>473</v>
       </c>
-      <c r="B371" s="9" t="s">
-        <v>472</v>
+      <c r="B371" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="C371">
         <v>1855</v>
@@ -7871,8 +7842,8 @@
       <c r="A372" t="s">
         <v>474</v>
       </c>
-      <c r="B372" s="9" t="s">
-        <v>472</v>
+      <c r="B372" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="C372">
         <v>1855</v>
@@ -7881,15 +7852,18 @@
         <v>8</v>
       </c>
       <c r="E372">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="F372" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
+        <v>476</v>
+      </c>
+      <c r="B373" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="B373" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="C373">
         <v>1855</v>
@@ -7908,8 +7882,8 @@
       <c r="A374" t="s">
         <v>477</v>
       </c>
-      <c r="B374" s="9" t="s">
-        <v>476</v>
+      <c r="B374" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="C374">
         <v>1855</v>
@@ -7918,7 +7892,7 @@
         <v>8</v>
       </c>
       <c r="E374">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F374" t="s">
         <v>43</v>
@@ -7928,8 +7902,8 @@
       <c r="A375" t="s">
         <v>478</v>
       </c>
-      <c r="B375" s="9" t="s">
-        <v>476</v>
+      <c r="B375" s="8" t="s">
+        <v>475</v>
       </c>
       <c r="C375">
         <v>1855</v>
@@ -7948,347 +7922,331 @@
       <c r="A376" t="s">
         <v>479</v>
       </c>
-      <c r="B376" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C376">
-        <v>1855</v>
-      </c>
-      <c r="D376">
-        <v>8</v>
-      </c>
-      <c r="E376">
-        <v>16</v>
-      </c>
-      <c r="F376" t="s">
-        <v>43</v>
+      <c r="B376" s="8" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>480</v>
-      </c>
-      <c r="B377" s="9" t="s">
         <v>481</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>482</v>
       </c>
-      <c r="B378" s="9" t="s">
-        <v>22</v>
+      <c r="B378" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
+        <v>484</v>
+      </c>
+      <c r="B379" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>485</v>
       </c>
-      <c r="B380" s="9" t="s">
-        <v>484</v>
+      <c r="B380" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="H380" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>486</v>
-      </c>
-      <c r="B381" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="H381" t="s">
-        <v>89</v>
+      <c r="B381" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
-        <v>488</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="B382" s="8"/>
     </row>
     <row r="383" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B383" s="9"/>
+      <c r="B383" s="8"/>
     </row>
     <row r="384" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B384" s="9"/>
+      <c r="B384" s="8"/>
     </row>
     <row r="385" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="9"/>
+      <c r="B385" s="8"/>
     </row>
     <row r="386" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="9"/>
+      <c r="B386" s="8"/>
     </row>
     <row r="387" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="9"/>
+      <c r="B387" s="8"/>
     </row>
     <row r="388" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="9"/>
+      <c r="B388" s="8"/>
     </row>
     <row r="389" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="9"/>
+      <c r="B389" s="8"/>
     </row>
     <row r="390" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="9"/>
+      <c r="B390" s="8"/>
     </row>
     <row r="391" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="9"/>
+      <c r="B391" s="8"/>
     </row>
     <row r="392" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="9"/>
+      <c r="B392" s="8"/>
     </row>
     <row r="393" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="9"/>
+      <c r="B393" s="8"/>
     </row>
     <row r="394" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="9"/>
+      <c r="B394" s="8"/>
     </row>
     <row r="395" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="9"/>
+      <c r="B395" s="8"/>
     </row>
     <row r="396" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="9"/>
+      <c r="B396" s="8"/>
     </row>
     <row r="397" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="9"/>
+      <c r="B397" s="8"/>
     </row>
     <row r="398" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="9"/>
+      <c r="B398" s="8"/>
     </row>
     <row r="399" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="9"/>
+      <c r="B399" s="8"/>
     </row>
     <row r="400" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="9"/>
+      <c r="B400" s="8"/>
     </row>
     <row r="401" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="9"/>
+      <c r="B401" s="8"/>
     </row>
     <row r="402" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="9"/>
+      <c r="B402" s="8"/>
     </row>
     <row r="403" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="9"/>
+      <c r="B403" s="8"/>
     </row>
     <row r="404" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="9"/>
+      <c r="B404" s="8"/>
     </row>
     <row r="405" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="9"/>
+      <c r="B405" s="8"/>
     </row>
     <row r="406" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="9"/>
+      <c r="B406" s="8"/>
     </row>
     <row r="407" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="9"/>
+      <c r="B407" s="8"/>
     </row>
     <row r="408" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="9"/>
+      <c r="B408" s="8"/>
     </row>
     <row r="409" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="9"/>
+      <c r="B409" s="8"/>
     </row>
     <row r="410" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="9"/>
+      <c r="B410" s="8"/>
     </row>
     <row r="411" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="9"/>
+      <c r="B411" s="8"/>
     </row>
     <row r="412" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="9"/>
+      <c r="B412" s="8"/>
     </row>
     <row r="413" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="9"/>
+      <c r="B413" s="8"/>
     </row>
     <row r="414" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="9"/>
+      <c r="B414" s="8"/>
     </row>
     <row r="415" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="9"/>
+      <c r="B415" s="8"/>
     </row>
     <row r="416" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="9"/>
+      <c r="B416" s="8"/>
     </row>
     <row r="417" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="9"/>
+      <c r="B417" s="8"/>
     </row>
     <row r="418" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="9"/>
+      <c r="B418" s="8"/>
     </row>
     <row r="419" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="9"/>
+      <c r="B419" s="4"/>
     </row>
     <row r="420" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="4"/>
+      <c r="B420" s="8"/>
     </row>
     <row r="421" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="9"/>
+      <c r="B421" s="8"/>
     </row>
     <row r="422" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="9"/>
+      <c r="B422" s="8"/>
     </row>
     <row r="423" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="9"/>
+      <c r="B423" s="8"/>
     </row>
     <row r="424" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="9"/>
+      <c r="B424" s="8"/>
     </row>
     <row r="425" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="9"/>
+      <c r="B425" s="8"/>
     </row>
     <row r="426" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="9"/>
+      <c r="B426" s="8"/>
     </row>
     <row r="427" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="9"/>
+      <c r="B427" s="8"/>
     </row>
     <row r="428" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="9"/>
+      <c r="B428" s="8"/>
     </row>
     <row r="429" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="9"/>
+      <c r="B429" s="8"/>
     </row>
     <row r="430" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="9"/>
+      <c r="B430" s="8"/>
     </row>
     <row r="431" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="9"/>
+      <c r="B431" s="8"/>
     </row>
     <row r="432" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="9"/>
+      <c r="B432" s="4"/>
     </row>
     <row r="433" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="4"/>
     </row>
     <row r="434" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="4"/>
+      <c r="B434" s="8"/>
     </row>
     <row r="435" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="9"/>
+      <c r="B435" s="8"/>
     </row>
     <row r="436" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="9"/>
+      <c r="B436" s="8"/>
     </row>
     <row r="437" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="9"/>
+      <c r="B437" s="8"/>
     </row>
     <row r="438" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="9"/>
+      <c r="B438" s="8"/>
     </row>
     <row r="439" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="9"/>
+      <c r="B439" s="8"/>
     </row>
     <row r="440" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="9"/>
-    </row>
-    <row r="441" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="9"/>
+      <c r="B440" s="8"/>
+    </row>
+    <row r="441" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="2"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
     </row>
     <row r="442" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
-      <c r="B442" s="5"/>
+      <c r="B442" s="3"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="2"/>
-      <c r="B443" s="3"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
+    <row r="443" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B443" s="8"/>
     </row>
     <row r="444" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="9"/>
+      <c r="B444" s="8"/>
     </row>
     <row r="445" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="9"/>
     </row>
     <row r="446" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="10"/>
+      <c r="B446" s="9"/>
     </row>
     <row r="447" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="10"/>
+      <c r="B447" s="9"/>
     </row>
     <row r="448" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="10"/>
+      <c r="B448" s="9"/>
     </row>
     <row r="449" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B449" s="10"/>
+      <c r="B449" s="8"/>
     </row>
     <row r="450" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B450" s="9"/>
+      <c r="B450" s="8"/>
     </row>
     <row r="451" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="9"/>
     </row>
     <row r="452" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="10"/>
+      <c r="B452" s="8"/>
     </row>
     <row r="453" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B453" s="9"/>
+      <c r="B453" s="8"/>
     </row>
     <row r="454" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="9"/>
+      <c r="B454" s="8"/>
     </row>
     <row r="455" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B455" s="9"/>
+      <c r="B455" s="8"/>
     </row>
     <row r="456" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B456" s="9"/>
+      <c r="B456" s="8"/>
     </row>
     <row r="457" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B457" s="9"/>
+      <c r="B457" s="8"/>
     </row>
     <row r="458" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="9"/>
+      <c r="B458" s="8"/>
     </row>
     <row r="459" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B459" s="9"/>
+      <c r="B459" s="8"/>
     </row>
     <row r="460" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="9"/>
+      <c r="B460" s="8"/>
     </row>
     <row r="461" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B461" s="9"/>
+      <c r="A461" s="2"/>
+      <c r="B461" s="3"/>
     </row>
     <row r="462" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
-      <c r="B462" s="3"/>
+      <c r="B462" s="8"/>
     </row>
     <row r="463" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
-      <c r="B463" s="9"/>
+      <c r="B463" s="8"/>
     </row>
     <row r="464" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
-      <c r="B464" s="9"/>
+      <c r="B464" s="8"/>
     </row>
     <row r="465" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
-      <c r="B465" s="9"/>
+      <c r="B465" s="8"/>
     </row>
     <row r="466" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
-      <c r="B466" s="9"/>
+      <c r="B466" s="3"/>
     </row>
     <row r="467" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
-      <c r="B467" s="3"/>
+      <c r="B467" s="4"/>
     </row>
     <row r="468" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
-      <c r="B468" s="4"/>
+      <c r="B468" s="3"/>
     </row>
     <row r="469" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
@@ -8310,9 +8268,9 @@
       <c r="A473" s="2"/>
       <c r="B473" s="3"/>
     </row>
-    <row r="474" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A474" s="2"/>
+    <row r="474" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="3"/>
+      <c r="J474" s="1"/>
     </row>
     <row r="475" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="3"/>
@@ -8330,9 +8288,12 @@
       <c r="B478" s="3"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="2"/>
       <c r="B479" s="3"/>
-      <c r="J479" s="1"/>
+      <c r="D479" s="2"/>
+      <c r="E479" s="2"/>
+      <c r="F479" s="2"/>
     </row>
     <row r="480" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
@@ -8341,116 +8302,123 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
     </row>
-    <row r="481" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="3"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
     </row>
-    <row r="482" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="3"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
     </row>
-    <row r="483" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="3"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
     </row>
-    <row r="484" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="3"/>
-      <c r="D484" s="2"/>
-      <c r="E484" s="2"/>
-      <c r="F484" s="2"/>
-    </row>
-    <row r="485" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="3"/>
-    </row>
-    <row r="486" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D485" s="2"/>
+      <c r="E485" s="2"/>
+      <c r="F485" s="2"/>
+    </row>
+    <row r="486" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="3"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
-    <row r="487" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="3"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
-    <row r="488" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="3"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
-    <row r="489" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="3"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="3"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
-    <row r="491" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="3"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="3"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
     </row>
-    <row r="493" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="3"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
     </row>
-    <row r="494" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="3"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
     </row>
-    <row r="495" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
-      <c r="B495" s="3"/>
+      <c r="B495" s="8"/>
       <c r="D495" s="2"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
-      <c r="B496" s="9"/>
+      <c r="B496" s="3"/>
       <c r="D496" s="2"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
-    </row>
-    <row r="497" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G496" s="2"/>
+      <c r="H496" s="2"/>
+      <c r="I496" s="2"/>
+      <c r="K496" s="2"/>
+      <c r="L496" s="2"/>
+      <c r="M496" s="2"/>
+      <c r="N496" s="2"/>
+    </row>
+    <row r="497" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="3"/>
       <c r="D497" s="2"/>
@@ -8480,7 +8448,7 @@
     </row>
     <row r="499" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
-      <c r="B499" s="3"/>
+      <c r="B499" s="8"/>
       <c r="D499" s="2"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
@@ -8494,7 +8462,7 @@
     </row>
     <row r="500" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
-      <c r="B500" s="9"/>
+      <c r="B500" s="8"/>
       <c r="D500" s="2"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
@@ -8508,7 +8476,7 @@
     </row>
     <row r="501" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
-      <c r="B501" s="9"/>
+      <c r="B501" s="3"/>
       <c r="D501" s="2"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
@@ -8522,7 +8490,7 @@
     </row>
     <row r="502" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
-      <c r="B502" s="3"/>
+      <c r="B502" s="8"/>
       <c r="D502" s="2"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
@@ -8536,7 +8504,7 @@
     </row>
     <row r="503" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
-      <c r="B503" s="9"/>
+      <c r="B503" s="3"/>
       <c r="D503" s="2"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
@@ -8548,9 +8516,10 @@
       <c r="M503" s="2"/>
       <c r="N503" s="2"/>
     </row>
-    <row r="504" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="3"/>
+      <c r="C504" s="2"/>
       <c r="D504" s="2"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
@@ -8565,7 +8534,6 @@
     <row r="505" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="3"/>
-      <c r="C505" s="2"/>
       <c r="D505" s="2"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
@@ -8591,7 +8559,7 @@
       <c r="M506" s="2"/>
       <c r="N506" s="2"/>
     </row>
-    <row r="507" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="3"/>
       <c r="D507" s="2"/>
@@ -8619,7 +8587,7 @@
       <c r="M508" s="2"/>
       <c r="N508" s="2"/>
     </row>
-    <row r="509" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="3"/>
       <c r="D509" s="2"/>
@@ -8647,7 +8615,7 @@
       <c r="M510" s="2"/>
       <c r="N510" s="2"/>
     </row>
-    <row r="511" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="3"/>
       <c r="D511" s="2"/>
@@ -8675,9 +8643,10 @@
       <c r="M512" s="2"/>
       <c r="N512" s="2"/>
     </row>
-    <row r="513" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
-      <c r="B513" s="3"/>
+      <c r="B513" s="8"/>
+      <c r="C513" s="2"/>
       <c r="D513" s="2"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
@@ -8691,7 +8660,7 @@
     </row>
     <row r="514" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
-      <c r="B514" s="9"/>
+      <c r="B514" s="8"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
       <c r="E514" s="2"/>
@@ -8706,7 +8675,7 @@
     </row>
     <row r="515" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
-      <c r="B515" s="9"/>
+      <c r="B515" s="8"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
       <c r="E515" s="2"/>
@@ -8719,9 +8688,9 @@
       <c r="M515" s="2"/>
       <c r="N515" s="2"/>
     </row>
-    <row r="516" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
-      <c r="B516" s="9"/>
+      <c r="B516" s="8"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
       <c r="E516" s="2"/>
@@ -8736,7 +8705,7 @@
     </row>
     <row r="517" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
-      <c r="B517" s="9"/>
+      <c r="B517" s="8"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
       <c r="E517" s="2"/>
@@ -8751,7 +8720,7 @@
     </row>
     <row r="518" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
-      <c r="B518" s="9"/>
+      <c r="B518" s="8"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
       <c r="E518" s="2"/>
@@ -8766,7 +8735,7 @@
     </row>
     <row r="519" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
-      <c r="B519" s="9"/>
+      <c r="B519" s="8"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
       <c r="E519" s="2"/>
@@ -8781,7 +8750,7 @@
     </row>
     <row r="520" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
-      <c r="B520" s="9"/>
+      <c r="B520" s="3"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
       <c r="E520" s="2"/>
@@ -8796,7 +8765,7 @@
     </row>
     <row r="521" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
-      <c r="B521" s="3"/>
+      <c r="B521" s="8"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
       <c r="E521" s="2"/>
@@ -8811,7 +8780,7 @@
     </row>
     <row r="522" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
-      <c r="B522" s="9"/>
+      <c r="B522" s="8"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
       <c r="E522" s="2"/>
@@ -8826,7 +8795,7 @@
     </row>
     <row r="523" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
-      <c r="B523" s="9"/>
+      <c r="B523" s="3"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
       <c r="E523" s="2"/>
@@ -8856,7 +8825,7 @@
     </row>
     <row r="525" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
-      <c r="B525" s="3"/>
+      <c r="B525" s="8"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
       <c r="E525" s="2"/>
@@ -8871,7 +8840,7 @@
     </row>
     <row r="526" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
-      <c r="B526" s="9"/>
+      <c r="B526" s="8"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
       <c r="E526" s="2"/>
@@ -8886,7 +8855,7 @@
     </row>
     <row r="527" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
-      <c r="B527" s="9"/>
+      <c r="B527" s="8"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
       <c r="E527" s="2"/>
@@ -8901,7 +8870,7 @@
     </row>
     <row r="528" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
-      <c r="B528" s="9"/>
+      <c r="B528" s="3"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
       <c r="E528" s="2"/>
@@ -8916,7 +8885,7 @@
     </row>
     <row r="529" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
-      <c r="B529" s="3"/>
+      <c r="B529" s="8"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
       <c r="E529" s="2"/>
@@ -8931,7 +8900,7 @@
     </row>
     <row r="530" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
-      <c r="B530" s="9"/>
+      <c r="B530" s="8"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
       <c r="E530" s="2"/>
@@ -8946,7 +8915,7 @@
     </row>
     <row r="531" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
-      <c r="B531" s="9"/>
+      <c r="B531" s="3"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
@@ -9006,7 +8975,7 @@
     </row>
     <row r="535" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
-      <c r="B535" s="3"/>
+      <c r="B535" s="8"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
       <c r="E535" s="2"/>
@@ -9021,7 +8990,7 @@
     </row>
     <row r="536" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
-      <c r="B536" s="9"/>
+      <c r="B536" s="8"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
       <c r="E536" s="2"/>
@@ -9036,7 +9005,7 @@
     </row>
     <row r="537" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
-      <c r="B537" s="9"/>
+      <c r="B537" s="8"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
       <c r="E537" s="2"/>
@@ -9051,7 +9020,7 @@
     </row>
     <row r="538" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
-      <c r="B538" s="9"/>
+      <c r="B538" s="8"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
       <c r="E538" s="2"/>
@@ -9066,7 +9035,7 @@
     </row>
     <row r="539" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
-      <c r="B539" s="9"/>
+      <c r="B539" s="8"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
       <c r="E539" s="2"/>
@@ -9079,9 +9048,9 @@
       <c r="M539" s="2"/>
       <c r="N539" s="2"/>
     </row>
-    <row r="540" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
-      <c r="B540" s="9"/>
+      <c r="B540" s="8"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
       <c r="E540" s="2"/>
@@ -9094,9 +9063,9 @@
       <c r="M540" s="2"/>
       <c r="N540" s="2"/>
     </row>
-    <row r="541" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
-      <c r="B541" s="9"/>
+      <c r="B541" s="8"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
       <c r="E541" s="2"/>
@@ -9111,7 +9080,7 @@
     </row>
     <row r="542" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
-      <c r="B542" s="9"/>
+      <c r="B542" s="8"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
       <c r="E542" s="2"/>
@@ -9126,7 +9095,7 @@
     </row>
     <row r="543" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
-      <c r="B543" s="9"/>
+      <c r="B543" s="8"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
       <c r="E543" s="2"/>
@@ -9141,7 +9110,7 @@
     </row>
     <row r="544" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
-      <c r="B544" s="9"/>
+      <c r="B544" s="8"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
       <c r="E544" s="2"/>
@@ -9156,7 +9125,7 @@
     </row>
     <row r="545" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
-      <c r="B545" s="9"/>
+      <c r="B545" s="8"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
       <c r="E545" s="2"/>
@@ -9171,7 +9140,7 @@
     </row>
     <row r="546" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
-      <c r="B546" s="9"/>
+      <c r="B546" s="8"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
       <c r="E546" s="2"/>
@@ -9186,7 +9155,7 @@
     </row>
     <row r="547" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
-      <c r="B547" s="9"/>
+      <c r="B547" s="8"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
       <c r="E547" s="2"/>
@@ -9201,7 +9170,7 @@
     </row>
     <row r="548" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
-      <c r="B548" s="9"/>
+      <c r="B548" s="8"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
       <c r="E548" s="2"/>
@@ -9216,7 +9185,7 @@
     </row>
     <row r="549" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
-      <c r="B549" s="9"/>
+      <c r="B549" s="8"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
       <c r="E549" s="2"/>
@@ -9231,7 +9200,7 @@
     </row>
     <row r="550" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
-      <c r="B550" s="9"/>
+      <c r="B550" s="8"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
       <c r="E550" s="2"/>
@@ -9246,7 +9215,7 @@
     </row>
     <row r="551" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
-      <c r="B551" s="9"/>
+      <c r="B551" s="8"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
       <c r="E551" s="2"/>
@@ -9261,7 +9230,7 @@
     </row>
     <row r="552" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
-      <c r="B552" s="9"/>
+      <c r="B552" s="8"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
       <c r="E552" s="2"/>
@@ -9276,7 +9245,7 @@
     </row>
     <row r="553" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
-      <c r="B553" s="9"/>
+      <c r="B553" s="8"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
       <c r="E553" s="2"/>
@@ -9291,7 +9260,7 @@
     </row>
     <row r="554" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
-      <c r="B554" s="9"/>
+      <c r="B554" s="8"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
       <c r="E554" s="2"/>
@@ -9306,7 +9275,7 @@
     </row>
     <row r="555" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
-      <c r="B555" s="9"/>
+      <c r="B555" s="8"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
       <c r="E555" s="2"/>
@@ -9321,7 +9290,7 @@
     </row>
     <row r="556" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
-      <c r="B556" s="9"/>
+      <c r="B556" s="8"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
       <c r="E556" s="2"/>
@@ -9336,7 +9305,7 @@
     </row>
     <row r="557" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
-      <c r="B557" s="9"/>
+      <c r="B557" s="8"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
       <c r="E557" s="2"/>
@@ -9351,7 +9320,7 @@
     </row>
     <row r="558" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
-      <c r="B558" s="9"/>
+      <c r="B558" s="8"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
@@ -9366,7 +9335,7 @@
     </row>
     <row r="559" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
-      <c r="B559" s="9"/>
+      <c r="B559" s="8"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
@@ -9381,7 +9350,7 @@
     </row>
     <row r="560" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
-      <c r="B560" s="9"/>
+      <c r="B560" s="8"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
       <c r="E560" s="2"/>
@@ -9396,7 +9365,7 @@
     </row>
     <row r="561" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
-      <c r="B561" s="9"/>
+      <c r="B561" s="8"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
       <c r="E561" s="2"/>
@@ -9411,7 +9380,7 @@
     </row>
     <row r="562" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
-      <c r="B562" s="9"/>
+      <c r="B562" s="3"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
       <c r="E562" s="2"/>
@@ -9441,7 +9410,7 @@
     </row>
     <row r="564" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
-      <c r="B564" s="3"/>
+      <c r="B564" s="8"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
       <c r="E564" s="2"/>
@@ -9456,7 +9425,7 @@
     </row>
     <row r="565" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
-      <c r="B565" s="9"/>
+      <c r="B565" s="8"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
       <c r="E565" s="2"/>
@@ -9471,7 +9440,7 @@
     </row>
     <row r="566" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
-      <c r="B566" s="9"/>
+      <c r="B566" s="8"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
       <c r="E566" s="2"/>
@@ -9486,7 +9455,7 @@
     </row>
     <row r="567" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
-      <c r="B567" s="9"/>
+      <c r="B567" s="8"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
       <c r="E567" s="2"/>
@@ -9501,7 +9470,7 @@
     </row>
     <row r="568" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
-      <c r="B568" s="9"/>
+      <c r="B568" s="8"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
       <c r="E568" s="2"/>
@@ -9516,7 +9485,7 @@
     </row>
     <row r="569" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
-      <c r="B569" s="9"/>
+      <c r="B569" s="8"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
       <c r="E569" s="2"/>
@@ -9531,7 +9500,7 @@
     </row>
     <row r="570" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
-      <c r="B570" s="9"/>
+      <c r="B570" s="8"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
       <c r="E570" s="2"/>
@@ -9546,7 +9515,7 @@
     </row>
     <row r="571" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
-      <c r="B571" s="9"/>
+      <c r="B571" s="8"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
       <c r="E571" s="2"/>
@@ -9561,7 +9530,7 @@
     </row>
     <row r="572" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
-      <c r="B572" s="9"/>
+      <c r="B572" s="8"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
       <c r="E572" s="2"/>
@@ -9576,7 +9545,7 @@
     </row>
     <row r="573" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
-      <c r="B573" s="9"/>
+      <c r="B573" s="8"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
       <c r="E573" s="2"/>
@@ -9591,7 +9560,7 @@
     </row>
     <row r="574" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
-      <c r="B574" s="9"/>
+      <c r="B574" s="8"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
       <c r="E574" s="2"/>
@@ -9606,7 +9575,7 @@
     </row>
     <row r="575" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
-      <c r="B575" s="9"/>
+      <c r="B575" s="8"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
       <c r="E575" s="2"/>
@@ -9621,7 +9590,7 @@
     </row>
     <row r="576" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
-      <c r="B576" s="9"/>
+      <c r="B576" s="3"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
       <c r="E576" s="2"/>
@@ -9724,35 +9693,24 @@
       <c r="M582" s="2"/>
       <c r="N582" s="2"/>
     </row>
-    <row r="583" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A583" s="2"/>
+    <row r="583" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B583" s="3"/>
-      <c r="C583" s="2"/>
-      <c r="D583" s="2"/>
-      <c r="E583" s="2"/>
-      <c r="F583" s="2"/>
-      <c r="G583" s="2"/>
-      <c r="H583" s="2"/>
-      <c r="I583" s="2"/>
-      <c r="K583" s="2"/>
-      <c r="L583" s="2"/>
-      <c r="M583" s="2"/>
-      <c r="N583" s="2"/>
+      <c r="J583" s="1"/>
     </row>
     <row r="584" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B584" s="3"/>
       <c r="J584" s="1"/>
     </row>
     <row r="585" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B585" s="3"/>
+      <c r="B585" s="8"/>
       <c r="J585" s="1"/>
     </row>
     <row r="586" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B586" s="9"/>
+      <c r="B586" s="8"/>
       <c r="J586" s="1"/>
     </row>
     <row r="587" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B587" s="9"/>
+      <c r="B587" s="3"/>
       <c r="J587" s="1"/>
     </row>
     <row r="588" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9760,52 +9718,56 @@
       <c r="J588" s="1"/>
     </row>
     <row r="589" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B589" s="3"/>
+      <c r="B589" s="8"/>
       <c r="J589" s="1"/>
     </row>
-    <row r="590" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B590" s="9"/>
-      <c r="J590" s="1"/>
+    <row r="590" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B590" s="8"/>
     </row>
     <row r="591" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B591" s="9"/>
-    </row>
-    <row r="592" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B592" s="9"/>
+      <c r="B591" s="8"/>
+    </row>
+    <row r="592" spans="1:14" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B592" s="8"/>
+      <c r="J592" s="1"/>
     </row>
     <row r="593" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B593" s="9"/>
+      <c r="B593" s="8"/>
       <c r="J593" s="1"/>
     </row>
     <row r="594" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B594" s="9"/>
+      <c r="B594" s="8"/>
       <c r="J594" s="1"/>
     </row>
     <row r="595" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B595" s="9"/>
+      <c r="B595" s="8"/>
       <c r="J595" s="1"/>
     </row>
-    <row r="596" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B596" s="9"/>
-      <c r="J596" s="1"/>
+    <row r="596" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B596" s="8"/>
     </row>
     <row r="597" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B597" s="9"/>
-    </row>
-    <row r="598" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B598" s="9"/>
+      <c r="B597" s="8"/>
+    </row>
+    <row r="598" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B598" s="8"/>
+      <c r="J598" s="1"/>
     </row>
     <row r="599" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B599" s="9"/>
+      <c r="B599" s="8"/>
       <c r="J599" s="1"/>
     </row>
-    <row r="600" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B600" s="9"/>
-      <c r="J600" s="1"/>
+    <row r="600" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="2"/>
+      <c r="B600" s="8"/>
+      <c r="C600" s="2"/>
+      <c r="D600" s="2"/>
+      <c r="E600" s="2"/>
+      <c r="F600" s="2"/>
     </row>
     <row r="601" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
-      <c r="B601" s="9"/>
+      <c r="B601" s="8"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
       <c r="E601" s="2"/>
@@ -9813,7 +9775,7 @@
     </row>
     <row r="602" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
-      <c r="B602" s="9"/>
+      <c r="B602" s="8"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
       <c r="E602" s="2"/>
@@ -9821,7 +9783,7 @@
     </row>
     <row r="603" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
-      <c r="B603" s="9"/>
+      <c r="B603" s="8"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
       <c r="E603" s="2"/>
@@ -9829,7 +9791,7 @@
     </row>
     <row r="604" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
-      <c r="B604" s="9"/>
+      <c r="B604" s="8"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
       <c r="E604" s="2"/>
@@ -9837,7 +9799,7 @@
     </row>
     <row r="605" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
-      <c r="B605" s="9"/>
+      <c r="B605" s="8"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
       <c r="E605" s="2"/>
@@ -9845,7 +9807,7 @@
     </row>
     <row r="606" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
-      <c r="B606" s="9"/>
+      <c r="B606" s="8"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
       <c r="E606" s="2"/>
@@ -9853,195 +9815,192 @@
     </row>
     <row r="607" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
-      <c r="B607" s="9"/>
+      <c r="B607" s="8"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
     <row r="608" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="2"/>
-      <c r="B608" s="9"/>
+      <c r="B608" s="8"/>
       <c r="C608" s="2"/>
-      <c r="D608" s="2"/>
-      <c r="E608" s="2"/>
-      <c r="F608" s="2"/>
     </row>
     <row r="609" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B609" s="9"/>
+      <c r="B609" s="8"/>
       <c r="C609" s="2"/>
     </row>
     <row r="610" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B610" s="9"/>
+      <c r="B610" s="8"/>
       <c r="C610" s="2"/>
     </row>
     <row r="611" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B611" s="9"/>
+      <c r="B611" s="8"/>
       <c r="C611" s="2"/>
     </row>
-    <row r="612" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B612" s="9"/>
-      <c r="C612" s="2"/>
+    <row r="612" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B612" s="8"/>
+      <c r="J612" s="1"/>
     </row>
     <row r="613" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B613" s="9"/>
+      <c r="B613" s="8"/>
       <c r="J613" s="1"/>
     </row>
-    <row r="614" spans="1:10" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B614" s="9"/>
-      <c r="J614" s="1"/>
+    <row r="614" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B614" s="8"/>
+      <c r="C614" s="2"/>
     </row>
     <row r="615" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B615" s="9"/>
+      <c r="B615" s="8"/>
       <c r="C615" s="2"/>
     </row>
     <row r="616" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B616" s="9"/>
+      <c r="B616" s="8"/>
       <c r="C616" s="2"/>
     </row>
     <row r="617" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B617" s="9"/>
+      <c r="B617" s="8"/>
       <c r="C617" s="2"/>
     </row>
-    <row r="618" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B618" s="9"/>
+    <row r="618" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="2"/>
+      <c r="B618" s="8"/>
       <c r="C618" s="2"/>
+      <c r="D618" s="2"/>
+      <c r="E618" s="2"/>
+      <c r="F618" s="2"/>
     </row>
     <row r="619" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
-      <c r="B619" s="9"/>
+      <c r="B619" s="8"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
     </row>
-    <row r="620" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
-      <c r="B620" s="9"/>
+      <c r="B620" s="8"/>
       <c r="C620" s="2"/>
-      <c r="D620" s="2"/>
-      <c r="E620" s="2"/>
-      <c r="F620" s="2"/>
     </row>
     <row r="621" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
-      <c r="B621" s="9"/>
+      <c r="B621" s="8"/>
       <c r="C621" s="2"/>
     </row>
     <row r="622" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
-      <c r="B622" s="9"/>
+      <c r="B622" s="8"/>
       <c r="C622" s="2"/>
     </row>
     <row r="623" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
-      <c r="B623" s="9"/>
+      <c r="B623" s="8"/>
       <c r="C623" s="2"/>
     </row>
     <row r="624" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
-      <c r="B624" s="9"/>
+      <c r="B624" s="8"/>
       <c r="C624" s="2"/>
     </row>
     <row r="625" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
-      <c r="B625" s="9"/>
+      <c r="B625" s="8"/>
       <c r="C625" s="2"/>
     </row>
     <row r="626" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
-      <c r="B626" s="9"/>
+      <c r="B626" s="8"/>
       <c r="C626" s="2"/>
     </row>
-    <row r="627" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
-      <c r="B627" s="9"/>
+      <c r="B627" s="8"/>
       <c r="C627" s="2"/>
+      <c r="D627" s="2"/>
+      <c r="E627" s="2"/>
+      <c r="F627" s="2"/>
     </row>
     <row r="628" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
-      <c r="B628" s="9"/>
+      <c r="B628" s="8"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
     </row>
-    <row r="629" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
-      <c r="B629" s="9"/>
+      <c r="B629" s="8"/>
       <c r="C629" s="2"/>
-      <c r="D629" s="2"/>
-      <c r="E629" s="2"/>
-      <c r="F629" s="2"/>
     </row>
     <row r="630" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
-      <c r="B630" s="9"/>
+      <c r="B630" s="8"/>
       <c r="C630" s="2"/>
     </row>
     <row r="631" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
-      <c r="B631" s="9"/>
+      <c r="B631" s="8"/>
       <c r="C631" s="2"/>
     </row>
     <row r="632" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
-      <c r="B632" s="9"/>
+      <c r="B632" s="8"/>
       <c r="C632" s="2"/>
     </row>
     <row r="633" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
-      <c r="B633" s="9"/>
+      <c r="B633" s="8"/>
       <c r="C633" s="2"/>
     </row>
     <row r="634" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
-      <c r="B634" s="9"/>
+      <c r="B634" s="8"/>
       <c r="C634" s="2"/>
     </row>
     <row r="635" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
-      <c r="B635" s="9"/>
+      <c r="B635" s="8"/>
       <c r="C635" s="2"/>
     </row>
     <row r="636" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
-      <c r="B636" s="9"/>
+      <c r="B636" s="8"/>
       <c r="C636" s="2"/>
     </row>
     <row r="637" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
-      <c r="B637" s="9"/>
+      <c r="B637" s="8"/>
       <c r="C637" s="2"/>
     </row>
     <row r="638" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
-      <c r="B638" s="9"/>
+      <c r="B638" s="8"/>
       <c r="C638" s="2"/>
     </row>
     <row r="639" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
-      <c r="B639" s="9"/>
+      <c r="B639" s="8"/>
       <c r="C639" s="2"/>
     </row>
     <row r="640" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
-      <c r="B640" s="9"/>
+      <c r="B640" s="8"/>
       <c r="C640" s="2"/>
     </row>
     <row r="641" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
-      <c r="B641" s="9"/>
+      <c r="B641" s="8"/>
       <c r="C641" s="2"/>
     </row>
     <row r="642" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
-      <c r="B642" s="9"/>
+      <c r="B642" s="8"/>
       <c r="C642" s="2"/>
     </row>
-    <row r="643" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
-      <c r="B643" s="9"/>
+      <c r="B643" s="1"/>
       <c r="C643" s="2"/>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -10049,20 +10008,15 @@
       <c r="B644" s="1"/>
       <c r="C644" s="2"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
-      <c r="B645" s="1"/>
+      <c r="B645" s="8"/>
       <c r="C645" s="2"/>
     </row>
     <row r="646" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
-      <c r="B646" s="9"/>
+      <c r="B646" s="8"/>
       <c r="C646" s="2"/>
-    </row>
-    <row r="647" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="2"/>
-      <c r="B647" s="9"/>
-      <c r="C647" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
